--- a/Code/Results/Cases/Case_5_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_120/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008566088783777</v>
+        <v>1.039369959750353</v>
       </c>
       <c r="D2">
-        <v>1.027993261289916</v>
+        <v>1.045329498178673</v>
       </c>
       <c r="E2">
-        <v>1.023690206296825</v>
+        <v>1.047346641722156</v>
       </c>
       <c r="F2">
-        <v>1.034272246338967</v>
+        <v>1.056857548769779</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047462227056398</v>
+        <v>1.037451470814696</v>
       </c>
       <c r="J2">
-        <v>1.030493573813843</v>
+        <v>1.044462345111604</v>
       </c>
       <c r="K2">
-        <v>1.039075908902807</v>
+        <v>1.048098043204668</v>
       </c>
       <c r="L2">
-        <v>1.034829077332096</v>
+        <v>1.050109535099642</v>
       </c>
       <c r="M2">
-        <v>1.0452739024414</v>
+        <v>1.059594109347404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012868187310742</v>
+        <v>1.040298039018768</v>
       </c>
       <c r="D3">
-        <v>1.031085180127406</v>
+        <v>1.046016249075006</v>
       </c>
       <c r="E3">
-        <v>1.027165547226381</v>
+        <v>1.048144585214739</v>
       </c>
       <c r="F3">
-        <v>1.037851011493333</v>
+        <v>1.05767439403293</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048389918199334</v>
+        <v>1.037593281652592</v>
       </c>
       <c r="J3">
-        <v>1.033014095372589</v>
+        <v>1.04503570918404</v>
       </c>
       <c r="K3">
-        <v>1.041335188937292</v>
+        <v>1.048596537367496</v>
       </c>
       <c r="L3">
-        <v>1.037462249499334</v>
+        <v>1.05071934034515</v>
       </c>
       <c r="M3">
-        <v>1.048021447429514</v>
+        <v>1.060224668439941</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015599993852088</v>
+        <v>1.040899290802824</v>
       </c>
       <c r="D4">
-        <v>1.033051002721689</v>
+        <v>1.046461067549611</v>
       </c>
       <c r="E4">
-        <v>1.02937803301863</v>
+        <v>1.048661859337785</v>
       </c>
       <c r="F4">
-        <v>1.040128355828265</v>
+        <v>1.058203792220207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048969135415006</v>
+        <v>1.037683906595885</v>
       </c>
       <c r="J4">
-        <v>1.034612896472469</v>
+        <v>1.045406803599949</v>
       </c>
       <c r="K4">
-        <v>1.042766247337815</v>
+        <v>1.0489188619897</v>
       </c>
       <c r="L4">
-        <v>1.039134363374381</v>
+        <v>1.051114219638494</v>
       </c>
       <c r="M4">
-        <v>1.049765438438954</v>
+        <v>1.060632872886258</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016736424637919</v>
+        <v>1.041152228640804</v>
       </c>
       <c r="D5">
-        <v>1.033869323639059</v>
+        <v>1.046648174014058</v>
       </c>
       <c r="E5">
-        <v>1.030299742406093</v>
+        <v>1.048879547430179</v>
       </c>
       <c r="F5">
-        <v>1.041076845098597</v>
+        <v>1.058426551644131</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049207684541926</v>
+        <v>1.037721732689797</v>
       </c>
       <c r="J5">
-        <v>1.035277552452957</v>
+        <v>1.045562831886992</v>
       </c>
       <c r="K5">
-        <v>1.043360667018407</v>
+        <v>1.049054309870928</v>
       </c>
       <c r="L5">
-        <v>1.039829940479758</v>
+        <v>1.051280296052599</v>
       </c>
       <c r="M5">
-        <v>1.050490729565915</v>
+        <v>1.060804526184541</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016926543145706</v>
+        <v>1.041194708039192</v>
       </c>
       <c r="D6">
-        <v>1.034006254301063</v>
+        <v>1.046679596107805</v>
       </c>
       <c r="E6">
-        <v>1.030454015338391</v>
+        <v>1.048916111425125</v>
       </c>
       <c r="F6">
-        <v>1.041235586164536</v>
+        <v>1.058463965632557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049247449986252</v>
+        <v>1.037728067851678</v>
       </c>
       <c r="J6">
-        <v>1.035388718574929</v>
+        <v>1.04558903087122</v>
       </c>
       <c r="K6">
-        <v>1.043460055944669</v>
+        <v>1.049077048764012</v>
       </c>
       <c r="L6">
-        <v>1.039946304281594</v>
+        <v>1.051308185029576</v>
       </c>
       <c r="M6">
-        <v>1.050612053170137</v>
+        <v>1.060833350074855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015615225594306</v>
+        <v>1.040902669898073</v>
       </c>
       <c r="D7">
-        <v>1.033061968733207</v>
+        <v>1.046463567265768</v>
       </c>
       <c r="E7">
-        <v>1.029390381679638</v>
+        <v>1.048664767210638</v>
       </c>
       <c r="F7">
-        <v>1.040141064225865</v>
+        <v>1.058206767957247</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04897234227067</v>
+        <v>1.037684413102054</v>
       </c>
       <c r="J7">
-        <v>1.034621806750381</v>
+        <v>1.045408888379757</v>
       </c>
       <c r="K7">
-        <v>1.042774218040024</v>
+        <v>1.048920672078011</v>
       </c>
       <c r="L7">
-        <v>1.039143686427349</v>
+        <v>1.051116438489615</v>
       </c>
       <c r="M7">
-        <v>1.049775160500256</v>
+        <v>1.060635166354401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010031012505012</v>
+        <v>1.039683458076469</v>
       </c>
       <c r="D8">
-        <v>1.029045550731837</v>
+        <v>1.045561495761001</v>
       </c>
       <c r="E8">
-        <v>1.024872394118634</v>
+        <v>1.047616112461954</v>
       </c>
       <c r="F8">
-        <v>1.035489818771726</v>
+        <v>1.05713342947654</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047780159917485</v>
+        <v>1.037499631316672</v>
       </c>
       <c r="J8">
-        <v>1.031352184576058</v>
+        <v>1.044656096904436</v>
       </c>
       <c r="K8">
-        <v>1.039845945823059</v>
+        <v>1.04826655942103</v>
       </c>
       <c r="L8">
-        <v>1.035725671708615</v>
+        <v>1.050315559842655</v>
       </c>
       <c r="M8">
-        <v>1.046209594763609</v>
+        <v>1.059807169407394</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.999773557674182</v>
+        <v>1.037540644539925</v>
       </c>
       <c r="D9">
-        <v>1.0216901392302</v>
+        <v>1.043975411225252</v>
       </c>
       <c r="E9">
-        <v>1.016620495461973</v>
+        <v>1.045775609913113</v>
       </c>
       <c r="F9">
-        <v>1.02698694655648</v>
+        <v>1.055248618418613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045513897087008</v>
+        <v>1.037165348757322</v>
       </c>
       <c r="J9">
-        <v>1.02533431473835</v>
+        <v>1.043330322460074</v>
       </c>
       <c r="K9">
-        <v>1.034440844838222</v>
+        <v>1.047112189810762</v>
       </c>
       <c r="L9">
-        <v>1.029449551652199</v>
+        <v>1.048906624723262</v>
       </c>
       <c r="M9">
-        <v>1.039656843779958</v>
+        <v>1.058349657305174</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9926256974638409</v>
+        <v>1.036115943787897</v>
       </c>
       <c r="D10">
-        <v>1.016583403772527</v>
+        <v>1.042920462350672</v>
       </c>
       <c r="E10">
-        <v>1.010905155726155</v>
+        <v>1.044553658494293</v>
       </c>
       <c r="F10">
-        <v>1.021092916462043</v>
+        <v>1.053996587244456</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043885595202108</v>
+        <v>1.036936700029401</v>
       </c>
       <c r="J10">
-        <v>1.021134980732482</v>
+        <v>1.042447044078303</v>
       </c>
       <c r="K10">
-        <v>1.030659558888507</v>
+        <v>1.046341515791822</v>
       </c>
       <c r="L10">
-        <v>1.025080266702567</v>
+        <v>1.047968971671646</v>
       </c>
       <c r="M10">
-        <v>1.035091496575037</v>
+        <v>1.057379094814896</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9894502183618654</v>
+        <v>1.035499960657339</v>
       </c>
       <c r="D11">
-        <v>1.014320072850772</v>
+        <v>1.042464257962953</v>
       </c>
       <c r="E11">
-        <v>1.008375114549045</v>
+        <v>1.044025759185667</v>
       </c>
       <c r="F11">
-        <v>1.018482681276013</v>
+        <v>1.053455535995426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04315117309319</v>
+        <v>1.036836326363778</v>
       </c>
       <c r="J11">
-        <v>1.01926856315758</v>
+        <v>1.042064725702048</v>
       </c>
       <c r="K11">
-        <v>1.028976893722668</v>
+        <v>1.046007561708655</v>
       </c>
       <c r="L11">
-        <v>1.023140798120262</v>
+        <v>1.047563362707433</v>
       </c>
       <c r="M11">
-        <v>1.033064260403892</v>
+        <v>1.056959112730127</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.988257987738174</v>
+        <v>1.035271296901633</v>
       </c>
       <c r="D12">
-        <v>1.013471193335692</v>
+        <v>1.042294894506254</v>
       </c>
       <c r="E12">
-        <v>1.007426636207194</v>
+        <v>1.04382985794328</v>
       </c>
       <c r="F12">
-        <v>1.017503980707661</v>
+        <v>1.053254730519477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042873829254481</v>
+        <v>1.036798838320858</v>
       </c>
       <c r="J12">
-        <v>1.018567740291131</v>
+        <v>1.041922738948623</v>
       </c>
       <c r="K12">
-        <v>1.028344778677134</v>
+        <v>1.045883480424825</v>
       </c>
       <c r="L12">
-        <v>1.02241292343048</v>
+        <v>1.047412763076285</v>
       </c>
       <c r="M12">
-        <v>1.032303343686347</v>
+        <v>1.056803155905701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9885143113565684</v>
+        <v>1.035320339705524</v>
       </c>
       <c r="D13">
-        <v>1.013653656833585</v>
+        <v>1.042331219389804</v>
       </c>
       <c r="E13">
-        <v>1.00763048889575</v>
+        <v>1.043871871067844</v>
       </c>
       <c r="F13">
-        <v>1.017714336014862</v>
+        <v>1.053297796477847</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042933528482667</v>
+        <v>1.036806888890718</v>
       </c>
       <c r="J13">
-        <v>1.018718416442343</v>
+        <v>1.041953194514436</v>
       </c>
       <c r="K13">
-        <v>1.028480695499295</v>
+        <v>1.045910097884234</v>
       </c>
       <c r="L13">
-        <v>1.022569398523075</v>
+        <v>1.047445064399228</v>
       </c>
       <c r="M13">
-        <v>1.032466926536534</v>
+        <v>1.056836607194423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9893519314369574</v>
+        <v>1.035481056380249</v>
       </c>
       <c r="D14">
-        <v>1.014250073143303</v>
+        <v>1.042450256457171</v>
       </c>
       <c r="E14">
-        <v>1.008296893116515</v>
+        <v>1.044009562163045</v>
       </c>
       <c r="F14">
-        <v>1.018401970595755</v>
+        <v>1.053438933974729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043128341335716</v>
+        <v>1.036833231764603</v>
       </c>
       <c r="J14">
-        <v>1.01921078896027</v>
+        <v>1.042052988549994</v>
       </c>
       <c r="K14">
-        <v>1.028924789414434</v>
+        <v>1.045997305835417</v>
       </c>
       <c r="L14">
-        <v>1.023080786115668</v>
+        <v>1.047550912830537</v>
       </c>
       <c r="M14">
-        <v>1.033001526194736</v>
+        <v>1.05694622040014</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9898663120688699</v>
+        <v>1.035580097793384</v>
       </c>
       <c r="D15">
-        <v>1.014616450379656</v>
+        <v>1.042523611254451</v>
       </c>
       <c r="E15">
-        <v>1.008706320245131</v>
+        <v>1.044094422633029</v>
       </c>
       <c r="F15">
-        <v>1.01882442052449</v>
+        <v>1.053525915369376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043247765253377</v>
+        <v>1.036849435359978</v>
       </c>
       <c r="J15">
-        <v>1.019513144979662</v>
+        <v>1.042114478075105</v>
       </c>
       <c r="K15">
-        <v>1.029197460890137</v>
+        <v>1.04605103281729</v>
       </c>
       <c r="L15">
-        <v>1.023394868946483</v>
+        <v>1.047616137745302</v>
       </c>
       <c r="M15">
-        <v>1.033329851974275</v>
+        <v>1.057013762485229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9928346960925734</v>
+        <v>1.036156844092171</v>
       </c>
       <c r="D16">
-        <v>1.016732486651278</v>
+        <v>1.042950751824387</v>
       </c>
       <c r="E16">
-        <v>1.011071867832434</v>
+        <v>1.044588719151138</v>
       </c>
       <c r="F16">
-        <v>1.021264890446993</v>
+        <v>1.054032518080191</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043933706429847</v>
+        <v>1.036943332745412</v>
       </c>
       <c r="J16">
-        <v>1.021257808142101</v>
+        <v>1.04247242049175</v>
       </c>
       <c r="K16">
-        <v>1.030770252491374</v>
+        <v>1.046363674125168</v>
       </c>
       <c r="L16">
-        <v>1.025207953749856</v>
+        <v>1.04799589916674</v>
       </c>
       <c r="M16">
-        <v>1.035224947142384</v>
+        <v>1.057406973623033</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9946747211288528</v>
+        <v>1.036518869510398</v>
       </c>
       <c r="D17">
-        <v>1.018045634103988</v>
+        <v>1.043218846440379</v>
       </c>
       <c r="E17">
-        <v>1.012540639267773</v>
+        <v>1.044899104457876</v>
       </c>
       <c r="F17">
-        <v>1.022779896162723</v>
+        <v>1.054350588745859</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044356026044823</v>
+        <v>1.037001866478545</v>
       </c>
       <c r="J17">
-        <v>1.022339091374349</v>
+        <v>1.042696988535167</v>
       </c>
       <c r="K17">
-        <v>1.031744486981751</v>
+        <v>1.046559720480956</v>
       </c>
       <c r="L17">
-        <v>1.026332301367602</v>
+        <v>1.048234221785965</v>
       </c>
       <c r="M17">
-        <v>1.036399962151627</v>
+        <v>1.057653700017349</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9957402633986777</v>
+        <v>1.036730121652672</v>
       </c>
       <c r="D18">
-        <v>1.018806570696253</v>
+        <v>1.043375278830633</v>
       </c>
       <c r="E18">
-        <v>1.01339204555697</v>
+        <v>1.045080263947129</v>
       </c>
       <c r="F18">
-        <v>1.023657998813351</v>
+        <v>1.054536218694915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044599535085221</v>
+        <v>1.037035876252537</v>
       </c>
       <c r="J18">
-        <v>1.022965170015844</v>
+        <v>1.04282798937551</v>
       </c>
       <c r="K18">
-        <v>1.032308386717419</v>
+        <v>1.046674047072593</v>
       </c>
       <c r="L18">
-        <v>1.026983550601627</v>
+        <v>1.048373269937081</v>
       </c>
       <c r="M18">
-        <v>1.037080488465767</v>
+        <v>1.057797638061267</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9961022961276608</v>
+        <v>1.036802168202466</v>
       </c>
       <c r="D19">
-        <v>1.019065192682926</v>
+        <v>1.04342862790643</v>
       </c>
       <c r="E19">
-        <v>1.013681465508377</v>
+        <v>1.045142054442838</v>
       </c>
       <c r="F19">
-        <v>1.023956475838044</v>
+        <v>1.054599531416117</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044682090570412</v>
+        <v>1.037047450304634</v>
       </c>
       <c r="J19">
-        <v>1.023177873431574</v>
+        <v>1.042872659630892</v>
       </c>
       <c r="K19">
-        <v>1.032499931708736</v>
+        <v>1.046713025388371</v>
       </c>
       <c r="L19">
-        <v>1.027204845293006</v>
+        <v>1.048420688269261</v>
       </c>
       <c r="M19">
-        <v>1.037311719301966</v>
+        <v>1.057846721700613</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9944781061344248</v>
+        <v>1.036480018410351</v>
       </c>
       <c r="D20">
-        <v>1.017905265478403</v>
+        <v>1.043190076482385</v>
       </c>
       <c r="E20">
-        <v>1.012383605388709</v>
+        <v>1.044865790938572</v>
       </c>
       <c r="F20">
-        <v>1.022617929923368</v>
+        <v>1.054316451929777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044311008085087</v>
+        <v>1.036995600007931</v>
       </c>
       <c r="J20">
-        <v>1.02222355964055</v>
+        <v>1.042672893042079</v>
       </c>
       <c r="K20">
-        <v>1.031640413285164</v>
+        <v>1.046538689028501</v>
       </c>
       <c r="L20">
-        <v>1.026212143857673</v>
+        <v>1.048208648022092</v>
       </c>
       <c r="M20">
-        <v>1.036274397164205</v>
+        <v>1.057627225836603</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9891056295459482</v>
+        <v>1.035433725455265</v>
       </c>
       <c r="D21">
-        <v>1.014074672091214</v>
+        <v>1.042415200477435</v>
       </c>
       <c r="E21">
-        <v>1.008100897462266</v>
+        <v>1.043969010472466</v>
       </c>
       <c r="F21">
-        <v>1.018199735217392</v>
+        <v>1.053397367928969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043071100456564</v>
+        <v>1.036825480093159</v>
       </c>
       <c r="J21">
-        <v>1.01906600875196</v>
+        <v>1.042023601040351</v>
       </c>
       <c r="K21">
-        <v>1.028794213158111</v>
+        <v>1.045971626247385</v>
       </c>
       <c r="L21">
-        <v>1.022930404147564</v>
+        <v>1.047519741394451</v>
       </c>
       <c r="M21">
-        <v>1.032844321113722</v>
+        <v>1.056913940838135</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9856538222576352</v>
+        <v>1.034776689082257</v>
       </c>
       <c r="D22">
-        <v>1.011618722051664</v>
+        <v>1.041928533477485</v>
       </c>
       <c r="E22">
-        <v>1.005357585576291</v>
+        <v>1.043406234796854</v>
       </c>
       <c r="F22">
-        <v>1.015368717122512</v>
+        <v>1.052820459154247</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042265141302174</v>
+        <v>1.036717334381913</v>
       </c>
       <c r="J22">
-        <v>1.017036857811605</v>
+        <v>1.041615500887314</v>
       </c>
       <c r="K22">
-        <v>1.02696347096809</v>
+        <v>1.045614884474228</v>
       </c>
       <c r="L22">
-        <v>1.02082364958891</v>
+        <v>1.047086955511406</v>
       </c>
       <c r="M22">
-        <v>1.030641743514382</v>
+        <v>1.056465721045478</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9874909204280544</v>
+        <v>1.035124919314671</v>
       </c>
       <c r="D23">
-        <v>1.01292529401404</v>
+        <v>1.04218647421572</v>
       </c>
       <c r="E23">
-        <v>1.006816805833823</v>
+        <v>1.04370447123186</v>
       </c>
       <c r="F23">
-        <v>1.016874674795283</v>
+        <v>1.053126198206018</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042694943788857</v>
+        <v>1.036774776545445</v>
       </c>
       <c r="J23">
-        <v>1.018116823145805</v>
+        <v>1.041831829245137</v>
       </c>
       <c r="K23">
-        <v>1.027937989701269</v>
+        <v>1.045804019227503</v>
       </c>
       <c r="L23">
-        <v>1.021944708044192</v>
+        <v>1.047316349199925</v>
       </c>
       <c r="M23">
-        <v>1.031813845470861</v>
+        <v>1.056703306573549</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9945669717772327</v>
+        <v>1.036497573275765</v>
       </c>
       <c r="D24">
-        <v>1.017968707444809</v>
+        <v>1.043203076211061</v>
       </c>
       <c r="E24">
-        <v>1.01245457859878</v>
+        <v>1.044880843522707</v>
       </c>
       <c r="F24">
-        <v>1.022691132692402</v>
+        <v>1.054331876564242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044331358476889</v>
+        <v>1.036998431964077</v>
       </c>
       <c r="J24">
-        <v>1.022275777697866</v>
+        <v>1.042683780714799</v>
       </c>
       <c r="K24">
-        <v>1.031687453145819</v>
+        <v>1.046548192310665</v>
       </c>
       <c r="L24">
-        <v>1.026266451944013</v>
+        <v>1.048220203586069</v>
       </c>
       <c r="M24">
-        <v>1.036331149510186</v>
+        <v>1.05763918829695</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002477689147155</v>
+        <v>1.038093942032549</v>
       </c>
       <c r="D25">
-        <v>1.023626245998946</v>
+        <v>1.044385029244429</v>
       </c>
       <c r="E25">
-        <v>1.018790108064705</v>
+        <v>1.04625054119218</v>
       </c>
       <c r="F25">
-        <v>1.029223407582301</v>
+        <v>1.055735100230881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046120006462102</v>
+        <v>1.037252792765049</v>
       </c>
       <c r="J25">
-        <v>1.026921955914119</v>
+        <v>1.043672971631011</v>
       </c>
       <c r="K25">
-        <v>1.035868540845476</v>
+        <v>1.047410820412208</v>
       </c>
       <c r="L25">
-        <v>1.031103569940077</v>
+        <v>1.049270585566155</v>
       </c>
       <c r="M25">
-        <v>1.041384394432951</v>
+        <v>1.058726269477797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_120/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039369959750353</v>
+        <v>1.008566088783777</v>
       </c>
       <c r="D2">
-        <v>1.045329498178673</v>
+        <v>1.027993261289917</v>
       </c>
       <c r="E2">
-        <v>1.047346641722156</v>
+        <v>1.023690206296825</v>
       </c>
       <c r="F2">
-        <v>1.056857548769779</v>
+        <v>1.034272246338967</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037451470814696</v>
+        <v>1.047462227056398</v>
       </c>
       <c r="J2">
-        <v>1.044462345111604</v>
+        <v>1.030493573813843</v>
       </c>
       <c r="K2">
-        <v>1.048098043204668</v>
+        <v>1.039075908902807</v>
       </c>
       <c r="L2">
-        <v>1.050109535099642</v>
+        <v>1.034829077332097</v>
       </c>
       <c r="M2">
-        <v>1.059594109347404</v>
+        <v>1.0452739024414</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040298039018768</v>
+        <v>1.012868187310741</v>
       </c>
       <c r="D3">
-        <v>1.046016249075006</v>
+        <v>1.031085180127405</v>
       </c>
       <c r="E3">
-        <v>1.048144585214739</v>
+        <v>1.02716554722638</v>
       </c>
       <c r="F3">
-        <v>1.05767439403293</v>
+        <v>1.037851011493332</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037593281652592</v>
+        <v>1.048389918199334</v>
       </c>
       <c r="J3">
-        <v>1.04503570918404</v>
+        <v>1.033014095372588</v>
       </c>
       <c r="K3">
-        <v>1.048596537367496</v>
+        <v>1.041335188937291</v>
       </c>
       <c r="L3">
-        <v>1.05071934034515</v>
+        <v>1.037462249499333</v>
       </c>
       <c r="M3">
-        <v>1.060224668439941</v>
+        <v>1.048021447429512</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040899290802824</v>
+        <v>1.015599993852088</v>
       </c>
       <c r="D4">
-        <v>1.046461067549611</v>
+        <v>1.033051002721689</v>
       </c>
       <c r="E4">
-        <v>1.048661859337785</v>
+        <v>1.02937803301863</v>
       </c>
       <c r="F4">
-        <v>1.058203792220207</v>
+        <v>1.040128355828265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037683906595885</v>
+        <v>1.048969135415005</v>
       </c>
       <c r="J4">
-        <v>1.045406803599949</v>
+        <v>1.034612896472469</v>
       </c>
       <c r="K4">
-        <v>1.0489188619897</v>
+        <v>1.042766247337815</v>
       </c>
       <c r="L4">
-        <v>1.051114219638494</v>
+        <v>1.039134363374381</v>
       </c>
       <c r="M4">
-        <v>1.060632872886258</v>
+        <v>1.049765438438953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041152228640804</v>
+        <v>1.016736424637918</v>
       </c>
       <c r="D5">
-        <v>1.046648174014058</v>
+        <v>1.033869323639059</v>
       </c>
       <c r="E5">
-        <v>1.048879547430179</v>
+        <v>1.030299742406092</v>
       </c>
       <c r="F5">
-        <v>1.058426551644131</v>
+        <v>1.041076845098596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037721732689797</v>
+        <v>1.049207684541926</v>
       </c>
       <c r="J5">
-        <v>1.045562831886992</v>
+        <v>1.035277552452957</v>
       </c>
       <c r="K5">
-        <v>1.049054309870928</v>
+        <v>1.043360667018407</v>
       </c>
       <c r="L5">
-        <v>1.051280296052599</v>
+        <v>1.039829940479757</v>
       </c>
       <c r="M5">
-        <v>1.060804526184541</v>
+        <v>1.050490729565915</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041194708039192</v>
+        <v>1.016926543145705</v>
       </c>
       <c r="D6">
-        <v>1.046679596107805</v>
+        <v>1.034006254301062</v>
       </c>
       <c r="E6">
-        <v>1.048916111425125</v>
+        <v>1.03045401533839</v>
       </c>
       <c r="F6">
-        <v>1.058463965632557</v>
+        <v>1.041235586164536</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037728067851678</v>
+        <v>1.049247449986251</v>
       </c>
       <c r="J6">
-        <v>1.04558903087122</v>
+        <v>1.035388718574928</v>
       </c>
       <c r="K6">
-        <v>1.049077048764012</v>
+        <v>1.043460055944669</v>
       </c>
       <c r="L6">
-        <v>1.051308185029576</v>
+        <v>1.039946304281593</v>
       </c>
       <c r="M6">
-        <v>1.060833350074855</v>
+        <v>1.050612053170137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040902669898073</v>
+        <v>1.015615225594306</v>
       </c>
       <c r="D7">
-        <v>1.046463567265768</v>
+        <v>1.033061968733206</v>
       </c>
       <c r="E7">
-        <v>1.048664767210638</v>
+        <v>1.029390381679638</v>
       </c>
       <c r="F7">
-        <v>1.058206767957247</v>
+        <v>1.040141064225865</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037684413102054</v>
+        <v>1.04897234227067</v>
       </c>
       <c r="J7">
-        <v>1.045408888379757</v>
+        <v>1.034621806750381</v>
       </c>
       <c r="K7">
-        <v>1.048920672078011</v>
+        <v>1.042774218040024</v>
       </c>
       <c r="L7">
-        <v>1.051116438489615</v>
+        <v>1.039143686427349</v>
       </c>
       <c r="M7">
-        <v>1.060635166354401</v>
+        <v>1.049775160500256</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039683458076469</v>
+        <v>1.010031012505011</v>
       </c>
       <c r="D8">
-        <v>1.045561495761001</v>
+        <v>1.029045550731838</v>
       </c>
       <c r="E8">
-        <v>1.047616112461954</v>
+        <v>1.024872394118633</v>
       </c>
       <c r="F8">
-        <v>1.05713342947654</v>
+        <v>1.035489818771726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037499631316672</v>
+        <v>1.047780159917485</v>
       </c>
       <c r="J8">
-        <v>1.044656096904436</v>
+        <v>1.031352184576058</v>
       </c>
       <c r="K8">
-        <v>1.04826655942103</v>
+        <v>1.039845945823059</v>
       </c>
       <c r="L8">
-        <v>1.050315559842655</v>
+        <v>1.035725671708615</v>
       </c>
       <c r="M8">
-        <v>1.059807169407394</v>
+        <v>1.046209594763609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037540644539925</v>
+        <v>0.9997735576741814</v>
       </c>
       <c r="D9">
-        <v>1.043975411225252</v>
+        <v>1.0216901392302</v>
       </c>
       <c r="E9">
-        <v>1.045775609913113</v>
+        <v>1.016620495461972</v>
       </c>
       <c r="F9">
-        <v>1.055248618418613</v>
+        <v>1.02698694655648</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037165348757322</v>
+        <v>1.045513897087007</v>
       </c>
       <c r="J9">
-        <v>1.043330322460074</v>
+        <v>1.025334314738349</v>
       </c>
       <c r="K9">
-        <v>1.047112189810762</v>
+        <v>1.034440844838222</v>
       </c>
       <c r="L9">
-        <v>1.048906624723262</v>
+        <v>1.029449551652198</v>
       </c>
       <c r="M9">
-        <v>1.058349657305174</v>
+        <v>1.039656843779958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036115943787897</v>
+        <v>0.9926256974638409</v>
       </c>
       <c r="D10">
-        <v>1.042920462350672</v>
+        <v>1.016583403772527</v>
       </c>
       <c r="E10">
-        <v>1.044553658494293</v>
+        <v>1.010905155726155</v>
       </c>
       <c r="F10">
-        <v>1.053996587244456</v>
+        <v>1.021092916462043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036936700029401</v>
+        <v>1.043885595202108</v>
       </c>
       <c r="J10">
-        <v>1.042447044078303</v>
+        <v>1.021134980732482</v>
       </c>
       <c r="K10">
-        <v>1.046341515791822</v>
+        <v>1.030659558888507</v>
       </c>
       <c r="L10">
-        <v>1.047968971671646</v>
+        <v>1.025080266702567</v>
       </c>
       <c r="M10">
-        <v>1.057379094814896</v>
+        <v>1.035091496575037</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035499960657339</v>
+        <v>0.989450218361865</v>
       </c>
       <c r="D11">
-        <v>1.042464257962953</v>
+        <v>1.014320072850771</v>
       </c>
       <c r="E11">
-        <v>1.044025759185667</v>
+        <v>1.008375114549045</v>
       </c>
       <c r="F11">
-        <v>1.053455535995426</v>
+        <v>1.018482681276013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036836326363778</v>
+        <v>1.04315117309319</v>
       </c>
       <c r="J11">
-        <v>1.042064725702048</v>
+        <v>1.019268563157579</v>
       </c>
       <c r="K11">
-        <v>1.046007561708655</v>
+        <v>1.028976893722668</v>
       </c>
       <c r="L11">
-        <v>1.047563362707433</v>
+        <v>1.023140798120262</v>
       </c>
       <c r="M11">
-        <v>1.056959112730127</v>
+        <v>1.033064260403892</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035271296901633</v>
+        <v>0.9882579877381726</v>
       </c>
       <c r="D12">
-        <v>1.042294894506254</v>
+        <v>1.013471193335691</v>
       </c>
       <c r="E12">
-        <v>1.04382985794328</v>
+        <v>1.007426636207192</v>
       </c>
       <c r="F12">
-        <v>1.053254730519477</v>
+        <v>1.01750398070766</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036798838320858</v>
+        <v>1.04287382925448</v>
       </c>
       <c r="J12">
-        <v>1.041922738948623</v>
+        <v>1.01856774029113</v>
       </c>
       <c r="K12">
-        <v>1.045883480424825</v>
+        <v>1.028344778677133</v>
       </c>
       <c r="L12">
-        <v>1.047412763076285</v>
+        <v>1.022412923430479</v>
       </c>
       <c r="M12">
-        <v>1.056803155905701</v>
+        <v>1.032303343686346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035320339705524</v>
+        <v>0.9885143113565684</v>
       </c>
       <c r="D13">
-        <v>1.042331219389804</v>
+        <v>1.013653656833585</v>
       </c>
       <c r="E13">
-        <v>1.043871871067844</v>
+        <v>1.00763048889575</v>
       </c>
       <c r="F13">
-        <v>1.053297796477847</v>
+        <v>1.017714336014862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036806888890718</v>
+        <v>1.042933528482667</v>
       </c>
       <c r="J13">
-        <v>1.041953194514436</v>
+        <v>1.018718416442343</v>
       </c>
       <c r="K13">
-        <v>1.045910097884234</v>
+        <v>1.028480695499294</v>
       </c>
       <c r="L13">
-        <v>1.047445064399228</v>
+        <v>1.022569398523075</v>
       </c>
       <c r="M13">
-        <v>1.056836607194423</v>
+        <v>1.032466926536534</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035481056380249</v>
+        <v>0.9893519314369569</v>
       </c>
       <c r="D14">
-        <v>1.042450256457171</v>
+        <v>1.014250073143303</v>
       </c>
       <c r="E14">
-        <v>1.044009562163045</v>
+        <v>1.008296893116515</v>
       </c>
       <c r="F14">
-        <v>1.053438933974729</v>
+        <v>1.018401970595755</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036833231764603</v>
+        <v>1.043128341335715</v>
       </c>
       <c r="J14">
-        <v>1.042052988549994</v>
+        <v>1.01921078896027</v>
       </c>
       <c r="K14">
-        <v>1.045997305835417</v>
+        <v>1.028924789414435</v>
       </c>
       <c r="L14">
-        <v>1.047550912830537</v>
+        <v>1.023080786115668</v>
       </c>
       <c r="M14">
-        <v>1.05694622040014</v>
+        <v>1.033001526194736</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035580097793384</v>
+        <v>0.9898663120688699</v>
       </c>
       <c r="D15">
-        <v>1.042523611254451</v>
+        <v>1.014616450379656</v>
       </c>
       <c r="E15">
-        <v>1.044094422633029</v>
+        <v>1.008706320245131</v>
       </c>
       <c r="F15">
-        <v>1.053525915369376</v>
+        <v>1.01882442052449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036849435359978</v>
+        <v>1.043247765253377</v>
       </c>
       <c r="J15">
-        <v>1.042114478075105</v>
+        <v>1.019513144979662</v>
       </c>
       <c r="K15">
-        <v>1.04605103281729</v>
+        <v>1.029197460890137</v>
       </c>
       <c r="L15">
-        <v>1.047616137745302</v>
+        <v>1.023394868946483</v>
       </c>
       <c r="M15">
-        <v>1.057013762485229</v>
+        <v>1.033329851974275</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036156844092171</v>
+        <v>0.992834696092573</v>
       </c>
       <c r="D16">
-        <v>1.042950751824387</v>
+        <v>1.016732486651278</v>
       </c>
       <c r="E16">
-        <v>1.044588719151138</v>
+        <v>1.011071867832434</v>
       </c>
       <c r="F16">
-        <v>1.054032518080191</v>
+        <v>1.021264890446993</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036943332745412</v>
+        <v>1.043933706429847</v>
       </c>
       <c r="J16">
-        <v>1.04247242049175</v>
+        <v>1.021257808142101</v>
       </c>
       <c r="K16">
-        <v>1.046363674125168</v>
+        <v>1.030770252491373</v>
       </c>
       <c r="L16">
-        <v>1.04799589916674</v>
+        <v>1.025207953749856</v>
       </c>
       <c r="M16">
-        <v>1.057406973623033</v>
+        <v>1.035224947142383</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036518869510398</v>
+        <v>0.9946747211288524</v>
       </c>
       <c r="D17">
-        <v>1.043218846440379</v>
+        <v>1.018045634103988</v>
       </c>
       <c r="E17">
-        <v>1.044899104457876</v>
+        <v>1.012540639267773</v>
       </c>
       <c r="F17">
-        <v>1.054350588745859</v>
+        <v>1.022779896162723</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037001866478545</v>
+        <v>1.044356026044822</v>
       </c>
       <c r="J17">
-        <v>1.042696988535167</v>
+        <v>1.022339091374349</v>
       </c>
       <c r="K17">
-        <v>1.046559720480956</v>
+        <v>1.031744486981751</v>
       </c>
       <c r="L17">
-        <v>1.048234221785965</v>
+        <v>1.026332301367602</v>
       </c>
       <c r="M17">
-        <v>1.057653700017349</v>
+        <v>1.036399962151627</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036730121652672</v>
+        <v>0.9957402633986776</v>
       </c>
       <c r="D18">
-        <v>1.043375278830633</v>
+        <v>1.018806570696252</v>
       </c>
       <c r="E18">
-        <v>1.045080263947129</v>
+        <v>1.01339204555697</v>
       </c>
       <c r="F18">
-        <v>1.054536218694915</v>
+        <v>1.023657998813351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037035876252537</v>
+        <v>1.044599535085221</v>
       </c>
       <c r="J18">
-        <v>1.04282798937551</v>
+        <v>1.022965170015844</v>
       </c>
       <c r="K18">
-        <v>1.046674047072593</v>
+        <v>1.032308386717418</v>
       </c>
       <c r="L18">
-        <v>1.048373269937081</v>
+        <v>1.026983550601626</v>
       </c>
       <c r="M18">
-        <v>1.057797638061267</v>
+        <v>1.037080488465767</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036802168202466</v>
+        <v>0.9961022961276614</v>
       </c>
       <c r="D19">
-        <v>1.04342862790643</v>
+        <v>1.019065192682927</v>
       </c>
       <c r="E19">
-        <v>1.045142054442838</v>
+        <v>1.013681465508377</v>
       </c>
       <c r="F19">
-        <v>1.054599531416117</v>
+        <v>1.023956475838045</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037047450304634</v>
+        <v>1.044682090570412</v>
       </c>
       <c r="J19">
-        <v>1.042872659630892</v>
+        <v>1.023177873431575</v>
       </c>
       <c r="K19">
-        <v>1.046713025388371</v>
+        <v>1.032499931708737</v>
       </c>
       <c r="L19">
-        <v>1.048420688269261</v>
+        <v>1.027204845293006</v>
       </c>
       <c r="M19">
-        <v>1.057846721700613</v>
+        <v>1.037311719301967</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036480018410351</v>
+        <v>0.9944781061344258</v>
       </c>
       <c r="D20">
-        <v>1.043190076482385</v>
+        <v>1.017905265478404</v>
       </c>
       <c r="E20">
-        <v>1.044865790938572</v>
+        <v>1.01238360538871</v>
       </c>
       <c r="F20">
-        <v>1.054316451929777</v>
+        <v>1.022617929923369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036995600007931</v>
+        <v>1.044311008085087</v>
       </c>
       <c r="J20">
-        <v>1.042672893042079</v>
+        <v>1.022223559640551</v>
       </c>
       <c r="K20">
-        <v>1.046538689028501</v>
+        <v>1.031640413285165</v>
       </c>
       <c r="L20">
-        <v>1.048208648022092</v>
+        <v>1.026212143857674</v>
       </c>
       <c r="M20">
-        <v>1.057627225836603</v>
+        <v>1.036274397164207</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035433725455265</v>
+        <v>0.9891056295459492</v>
       </c>
       <c r="D21">
-        <v>1.042415200477435</v>
+        <v>1.014074672091215</v>
       </c>
       <c r="E21">
-        <v>1.043969010472466</v>
+        <v>1.008100897462267</v>
       </c>
       <c r="F21">
-        <v>1.053397367928969</v>
+        <v>1.018199735217393</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036825480093159</v>
+        <v>1.043071100456564</v>
       </c>
       <c r="J21">
-        <v>1.042023601040351</v>
+        <v>1.019066008751961</v>
       </c>
       <c r="K21">
-        <v>1.045971626247385</v>
+        <v>1.028794213158112</v>
       </c>
       <c r="L21">
-        <v>1.047519741394451</v>
+        <v>1.022930404147565</v>
       </c>
       <c r="M21">
-        <v>1.056913940838135</v>
+        <v>1.032844321113723</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034776689082257</v>
+        <v>0.9856538222576354</v>
       </c>
       <c r="D22">
-        <v>1.041928533477485</v>
+        <v>1.011618722051664</v>
       </c>
       <c r="E22">
-        <v>1.043406234796854</v>
+        <v>1.005357585576291</v>
       </c>
       <c r="F22">
-        <v>1.052820459154247</v>
+        <v>1.015368717122513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036717334381913</v>
+        <v>1.042265141302174</v>
       </c>
       <c r="J22">
-        <v>1.041615500887314</v>
+        <v>1.017036857811605</v>
       </c>
       <c r="K22">
-        <v>1.045614884474228</v>
+        <v>1.02696347096809</v>
       </c>
       <c r="L22">
-        <v>1.047086955511406</v>
+        <v>1.02082364958891</v>
       </c>
       <c r="M22">
-        <v>1.056465721045478</v>
+        <v>1.030641743514382</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035124919314671</v>
+        <v>0.9874909204280551</v>
       </c>
       <c r="D23">
-        <v>1.04218647421572</v>
+        <v>1.012925294014041</v>
       </c>
       <c r="E23">
-        <v>1.04370447123186</v>
+        <v>1.006816805833823</v>
       </c>
       <c r="F23">
-        <v>1.053126198206018</v>
+        <v>1.016874674795284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036774776545445</v>
+        <v>1.042694943788857</v>
       </c>
       <c r="J23">
-        <v>1.041831829245137</v>
+        <v>1.018116823145806</v>
       </c>
       <c r="K23">
-        <v>1.045804019227503</v>
+        <v>1.02793798970127</v>
       </c>
       <c r="L23">
-        <v>1.047316349199925</v>
+        <v>1.021944708044193</v>
       </c>
       <c r="M23">
-        <v>1.056703306573549</v>
+        <v>1.031813845470862</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036497573275765</v>
+        <v>0.9945669717772324</v>
       </c>
       <c r="D24">
-        <v>1.043203076211061</v>
+        <v>1.017968707444808</v>
       </c>
       <c r="E24">
-        <v>1.044880843522707</v>
+        <v>1.012454578598779</v>
       </c>
       <c r="F24">
-        <v>1.054331876564242</v>
+        <v>1.022691132692402</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036998431964077</v>
+        <v>1.044331358476889</v>
       </c>
       <c r="J24">
-        <v>1.042683780714799</v>
+        <v>1.022275777697866</v>
       </c>
       <c r="K24">
-        <v>1.046548192310665</v>
+        <v>1.031687453145819</v>
       </c>
       <c r="L24">
-        <v>1.048220203586069</v>
+        <v>1.026266451944013</v>
       </c>
       <c r="M24">
-        <v>1.05763918829695</v>
+        <v>1.036331149510186</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038093942032549</v>
+        <v>1.002477689147154</v>
       </c>
       <c r="D25">
-        <v>1.044385029244429</v>
+        <v>1.023626245998946</v>
       </c>
       <c r="E25">
-        <v>1.04625054119218</v>
+        <v>1.018790108064705</v>
       </c>
       <c r="F25">
-        <v>1.055735100230881</v>
+        <v>1.029223407582301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037252792765049</v>
+        <v>1.046120006462102</v>
       </c>
       <c r="J25">
-        <v>1.043672971631011</v>
+        <v>1.026921955914118</v>
       </c>
       <c r="K25">
-        <v>1.047410820412208</v>
+        <v>1.035868540845476</v>
       </c>
       <c r="L25">
-        <v>1.049270585566155</v>
+        <v>1.031103569940077</v>
       </c>
       <c r="M25">
-        <v>1.058726269477797</v>
+        <v>1.041384394432951</v>
       </c>
     </row>
   </sheetData>
